--- a/biology/Botanique/John_Gibson_MacVicar/John_Gibson_MacVicar.xlsx
+++ b/biology/Botanique/John_Gibson_MacVicar/John_Gibson_MacVicar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Gibson MacVicar, né le 16 mars 1800 à Dundee et mort le 12 février 1884 à Moffatt, est un révérend, médecin et botaniste écossais. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John MacVicar arrive à Ceylan comme pasteur de l’église écossaise[1], puis en Inde en 1840. Il sert comme botaniste dans des expéditions dirigées par John Campbell de 1840 à 1854, en particulier dans le Gondwâna, dont le but principal est l'abolition des sacrifices humains. 
-Revenu en Angleterre, il devient professeur d'histoire naturelle à l'université de St Andrews où il avait été précédemment de 1825 à 1827, lecteur en histoire naturelle[2]. 
-Jules Verne dans son roman La Maison à vapeur (partie 1, chapitre XV) le mentionne (en écrivant « Macviccar »). Il prend alors pour source un texte de John Campbell paru dans la revue Le Tour du monde de 1864, intitulé Les Meriaks ou Sacrifices humain[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John MacVicar arrive à Ceylan comme pasteur de l’église écossaise, puis en Inde en 1840. Il sert comme botaniste dans des expéditions dirigées par John Campbell de 1840 à 1854, en particulier dans le Gondwâna, dont le but principal est l'abolition des sacrifices humains. 
+Revenu en Angleterre, il devient professeur d'histoire naturelle à l'université de St Andrews où il avait été précédemment de 1825 à 1827, lecteur en histoire naturelle. 
+Jules Verne dans son roman La Maison à vapeur (partie 1, chapitre XV) le mentionne (en écrivant « Macviccar »). Il prend alors pour source un texte de John Campbell paru dans la revue Le Tour du monde de 1864, intitulé Les Meriaks ou Sacrifices humain.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1833 : Inquiries concerning the medium of light and the form of its molecules, Édimbourg, A. and C. Black ; Londres, Longman, Rees, Orme, Brown, Green and Longman
 1837 : On the beautiful : the picturesque, the sublime, Londres : Scott, Webster, &amp; Geary
